--- a/docs/VerifPlan.xlsx
+++ b/docs/VerifPlan.xlsx
@@ -63,43 +63,43 @@
     <t>Constrained-Random</t>
   </si>
   <si>
+    <t>Assertion Coverage</t>
+  </si>
+  <si>
+    <t>https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml</t>
+  </si>
+  <si>
+    <t>(number %5 == 0) |-&gt; buzz==1</t>
+  </si>
+  <si>
+    <t>When the number is divisible by 5 the output fizz should be active</t>
+  </si>
+  <si>
+    <t>Verify this property dynamically (in simulation) for all possible combination of input space (cross product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>RISC-V Compliance</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Signature Check</t>
+  </si>
+  <si>
+    <t>OpenHW Compliance</t>
+  </si>
+  <si>
     <t>Functional Coverage</t>
   </si>
   <si>
-    <t>https://github.com/npatsiatzis/simple_adder/blob/main/pyuvm_sim/coverage_pyuvm.xml</t>
-  </si>
-  <si>
-    <t>(number %5 == 0) |-&gt; buzz==1</t>
-  </si>
-  <si>
-    <t>When the number is divisible by 5 the output fizz should be active</t>
-  </si>
-  <si>
-    <t>Verify this property dynamically (in simulation) for all possible combination of input space (cross product)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>RISC-V Compliance</t>
-  </si>
-  <si>
-    <t>Testcase</t>
-  </si>
-  <si>
-    <t>Signature Check</t>
-  </si>
-  <si>
-    <t>OpenHW Compliance</t>
-  </si>
-  <si>
     <t>Check against RM</t>
   </si>
   <si>
     <t>Directed Self-Checking</t>
-  </si>
-  <si>
-    <t>Assertion Coverage</t>
   </si>
   <si>
     <t>Assertion Check</t>
@@ -163,6 +163,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -179,14 +187,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,10 +638,10 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,7 +650,7 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,7 +659,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,19 +668,19 @@
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,7 +695,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -705,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -733,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,25 +743,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,7 +785,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,10 +1179,10 @@
   <sheetPr/>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.0074074074074" defaultRowHeight="14.25"/>
@@ -1276,7 +1277,7 @@
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:9">
       <c r="A5" s="8"/>
@@ -2143,17 +2144,17 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:9">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2171,8 +2172,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://github.com/npatsiatzis/simple_adder/blob/main/pyuvm_sim/coverage_pyuvm.xml"/>
-    <hyperlink ref="I3" r:id="rId1" display="https://github.com/npatsiatzis/simple_adder/blob/main/pyuvm_sim/coverage_pyuvm.xml"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml" tooltip="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml"/>
+    <hyperlink ref="I3" r:id="rId1" display="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml" tooltip="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2228,18 +2229,18 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/docs/VerifPlan.xlsx
+++ b/docs/VerifPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Assertion Coverage</t>
   </si>
   <si>
-    <t>https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml</t>
+    <t>https://github.com/npatsiatzis/fizzbuzz/blob/main/uvm_sim/sbm_cov.txt</t>
   </si>
   <si>
     <t>(number %5 == 0) |-&gt; buzz==1</t>
@@ -76,6 +76,20 @@
   </si>
   <si>
     <t>Verify this property dynamically (in simulation) for all possible combination of input space (cross product)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Code Coverage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(statement, branch, FSM, assertion) can be found in : https://github.com/npatsiatzis/fizzbuzz/blob/main/uvm_sim/sbm_cov.txt</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
@@ -128,12 +142,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,6 +170,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <charset val="1"/>
@@ -186,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +226,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -214,8 +264,59 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,92 +331,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -338,19 +359,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,127 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,46 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,145 +609,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,9 +805,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,16 +1203,16 @@
   <sheetPr/>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.0074074074074" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.7259259259259" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.0074074074074" style="5" customWidth="1"/>
     <col min="3" max="3" width="28.6148148148148" style="5" customWidth="1"/>
     <col min="4" max="4" width="51.2888888888889" style="5" customWidth="1"/>
     <col min="5" max="5" width="41.2888888888889" style="5" customWidth="1"/>
@@ -1200,7 +1224,7 @@
     <col min="1024" max="1024" width="9.13333333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" s="3" customFormat="1" ht="42.75" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1222,14 +1246,14 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="42.75" spans="1:9">
+    <row r="2" s="3" customFormat="1" ht="28.5" spans="1:9">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>9</v>
@@ -1252,7 +1276,7 @@
       <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1277,7 +1301,7 @@
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1290,7 +1314,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:9">
       <c r="A5" s="8"/>
@@ -1313,9 +1337,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:9">
+    <row r="7" s="3" customFormat="1" ht="115.5" spans="1:9">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2144,17 +2170,17 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:9">
-      <c r="A84" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="A84" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2172,8 +2198,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml" tooltip="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml"/>
-    <hyperlink ref="I3" r:id="rId1" display="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml" tooltip="https://github.com/npatsiatzis/fizzbuzz/blob/main/pyuvm_sim/coverage.xml"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://github.com/npatsiatzis/fizzbuzz/blob/main/uvm_sim/sbm_cov.txt" tooltip="https://github.com/npatsiatzis/fizzbuzz/blob/main/uvm_sim/sbm_cov.txt"/>
+    <hyperlink ref="I3" r:id="rId1" display="https://github.com/npatsiatzis/fizzbuzz/blob/main/uvm_sim/sbm_cov.txt" tooltip="https://github.com/npatsiatzis/fizzbuzz/blob/main/uvm_sim/sbm_cov.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2215,29 +2241,29 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -2245,45 +2271,45 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VerifPlan.xlsx
+++ b/docs/VerifPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -54,7 +54,7 @@
     <t>When the number is divisible by 3 the output fizz should be active</t>
   </si>
   <si>
-    <t>Verify the fizzbuzz game rules</t>
+    <t>Verify the fizzbuzz game rules for all possible numbers in the input space.</t>
   </si>
   <si>
     <t>Self Checking Test</t>
@@ -75,10 +75,14 @@
     <t>When the number is divisible by 5 the output fizz should be active</t>
   </si>
   <si>
-    <t>Verify this property dynamically (in simulation) for all possible combination of input space (cross product)</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">*Code Coverage </t>
     </r>
     <r>
@@ -198,6 +202,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -207,15 +306,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -227,37 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,72 +335,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,17 +551,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -597,26 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,146 +616,172 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,7 +1210,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.0074074074074" defaultRowHeight="14.25"/>
@@ -1280,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="42.75" spans="1:9">
+    <row r="3" s="3" customFormat="1" ht="28.5" spans="1:9">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -1290,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>13</v>
@@ -1340,7 +1344,7 @@
     <row r="7" s="3" customFormat="1" ht="115.5" spans="1:9">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -2171,7 +2175,7 @@
     </row>
     <row r="84" s="4" customFormat="1" spans="1:9">
       <c r="A84" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2241,29 +2245,29 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -2271,45 +2275,45 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
